--- a/Desktop/SBI_insurance_nl_analysis/IRDAI public disclosures.xlsx
+++ b/Desktop/SBI_insurance_nl_analysis/IRDAI public disclosures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souga\Desktop\SBI_insurance_nl_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C0FDB-6EF2-4224-B862-C78380E43A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86705675-F24A-47B1-8D27-2B5CED876118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>https://www.aicofindia.com/AICEng/Pages/default.aspx</t>
   </si>
   <si>
-    <t>Bajaj Allianz General Insurance Company Limited</t>
-  </si>
-  <si>
     <t>https://www.bajajallianz.com/Corp/aboutus/general-financial-info.jsp</t>
   </si>
   <si>
@@ -93,15 +90,9 @@
     <t>https://www.godigit.com/financials</t>
   </si>
   <si>
-    <t>HDFC ERGO General Insurance Company Limited</t>
-  </si>
-  <si>
     <t>https://www.hdfcergo.com/about-us/financial-disclosures.html</t>
   </si>
   <si>
-    <t>ICICI Lombard General Insurance Company Limited</t>
-  </si>
-  <si>
     <t>https://www.icicilombard.com/about-us/public-disclosures.html</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>https://www.rahejaqbe.com/public-disclosures</t>
   </si>
   <si>
-    <t>Reliance General Insurance Company Limited</t>
-  </si>
-  <si>
     <t>https://www.reliancegeneral.co.in/Insurance/about-us/Public-Disclosure.aspx</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>https://www.royalsundaram.in/about-us/public-disclosures</t>
   </si>
   <si>
-    <t>SBI General Insurance Company Limited</t>
-  </si>
-  <si>
     <t>https://www.sbigeneral.in/portal/about-us/public-disclosure</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>http://www.starhealth.in/public-disclosure</t>
   </si>
   <si>
-    <t>Tata AIG General Insurance Company  Limited</t>
-  </si>
-  <si>
     <t>https://www.tataaig.com/publicDisclosure</t>
   </si>
   <si>
@@ -337,6 +319,24 @@
   </si>
   <si>
     <t>User-Agent':'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36'</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz General Insurance Company Limited (4631)</t>
+  </si>
+  <si>
+    <t>ICICI Lombard General Insurance Company Limited (2929)</t>
+  </si>
+  <si>
+    <t>HDFC ERGO General Insurance Company Limited (6187)</t>
+  </si>
+  <si>
+    <t>Tata AIG General Insurance Company  Limited (6186)</t>
+  </si>
+  <si>
+    <t>SBI General Insurance Company Limited (6188)</t>
+  </si>
+  <si>
+    <t>Reliance General Insurance Company Limited (6185)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +479,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +847,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -878,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -895,10 +904,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -912,27 +921,27 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -940,16 +949,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -957,16 +966,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -974,16 +983,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -991,16 +1000,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1008,16 +1017,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1025,16 +1034,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1042,50 +1051,50 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
+      <c r="B13" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+      <c r="B14" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1093,16 +1102,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1110,16 +1119,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1127,16 +1136,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1144,16 +1153,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1161,16 +1170,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1178,16 +1187,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1195,16 +1204,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1212,16 +1221,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1229,33 +1238,33 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
+      <c r="B24" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1263,16 +1272,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1280,33 +1289,33 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
+      <c r="B27" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1314,16 +1323,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1331,33 +1340,33 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
+      <c r="B30" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1365,16 +1374,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1382,16 +1391,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1399,16 +1408,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1416,16 +1425,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
